--- a/로스트아크/데이터테이블/1차완성/Effect_Table.xlsx
+++ b/로스트아크/데이터테이블/1차완성/Effect_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\1차완성\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FA1B8B-4948-4AB4-9623-0983E952B6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DAD3D0-488D-4B27-9028-86C2B0A9322E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -1577,8 +1577,175 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">type별 상세 효과 유형 </t>
+    <t>0 (피해형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 (능력치 조절)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟 능력치 (변수명을 그대로 활용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 (특수 기능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프 유형 (category = 1 일때)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 유형 (category = 2 일때)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_type 설명 및 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 (스킬 제어)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 (오브젝트 제어)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Motion Change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisualEffect Change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect Area Reduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 (리소스 제어)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_attribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리소스 속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect Area Increase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anim_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vfx_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VFX 크기 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisualEffect Scale Change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vfx_scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모션 재생 시작 시간 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Motion StartTime Change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anim_play_start_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모션 재생 속도 조절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Motion PlaySpdeed Change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anim_play_spd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 피해 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incoming Damage Decrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incoming_dmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cri_incoming_dmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">효과의 종류  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -1587,7 +1754,297 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
+      </rPr>
+      <t>: 일반 효과 (DEFAULT)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: 버프 등 이로운 효과(BUFF) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: 디버프 등 해로운 효과 (DEBUFF)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">효과의 유형 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: 피해형(DAMAGE)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: 능력치 조절(STAT)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: 특수 기능(SPECIAL) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: 스킬 제어(SKILL_CONTROL) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: 오브젝트 제어(OBJECT_CONTROL) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: 리소스 제어(RESOURCE_CONTROL)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">type별 상세 효과 유형 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">(아래의 </t>
     </r>
@@ -1599,7 +2056,6 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t>[비고 1]</t>
     </r>
@@ -1610,7 +2066,6 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 참고)</t>
     </r>
@@ -1618,70 +2073,8 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">[비고 1] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>type별 상세 효과</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 (피해형)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 (능력치 조절)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피해 유형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등등</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타겟 능력치 (변수명을 그대로 활용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 (특수 기능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버프 유형 (category = 1 일때)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디버프 유형 (category = 2 일때)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub_type 설명 및 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 (스킬 제어)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 (오브젝트 제어)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 유형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>효과가 적용되는 방식</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -1690,9 +2083,29 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>direct</t>
+      </rPr>
+      <t xml:space="preserve">
+0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: 대미지 처리(DEAL)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1701,52 +2114,9 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 일반 피해 (N의 피해로 N회 타격)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>fixed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 고정 피해</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -1755,9 +2125,18 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ratio</t>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: 고정 수치 증가(PLUS)</t>
     </r>
     <r>
       <rPr>
@@ -1766,24 +2145,9 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 비율 피해 (ex: 최대 체력 비례 피해 등)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -1792,9 +2156,8 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>atk_pwr</t>
+      </rPr>
+      <t>11</t>
     </r>
     <r>
       <rPr>
@@ -1803,13 +2166,29 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 공격력</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      </rPr>
+      <t xml:space="preserve">: 비율 증가(INCREASE) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -1818,9 +2197,8 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>move_spd</t>
+      </rPr>
+      <t>20</t>
     </r>
     <r>
       <rPr>
@@ -1829,13 +2207,19 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 이동 속도 </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      </rPr>
+      <t xml:space="preserve">: 고정 수치 감소(MINUS) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -1844,9 +2228,8 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>push_immune</t>
+      </rPr>
+      <t>21</t>
     </r>
     <r>
       <rPr>
@@ -1855,13 +2238,19 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 피격 이상 면역</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      </rPr>
+      <t>: 비율 감소(DECREASE)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -1870,20 +2259,8 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shield</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      </rPr>
+      <t>30</t>
     </r>
     <r>
       <rPr>
@@ -1892,13 +2269,19 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 보호막</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      </rPr>
+      <t xml:space="preserve">: 부여(GRANT) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -1907,9 +2290,24 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>heal</t>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: 변경 (CHANGE) </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[비고 1] </t>
     </r>
     <r>
       <rPr>
@@ -1918,20 +2316,8 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 회복</t>
+      </rPr>
+      <t>type별 상세 효과</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1944,9 +2330,8 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>push</t>
+      </rPr>
+      <t>direct</t>
     </r>
     <r>
       <rPr>
@@ -1955,7 +2340,6 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1966,9 +2350,34 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 피격 이상</t>
+      </rPr>
+      <t>: 일반 피해 (N의 피해로 N회 타격)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fixed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: 고정 피해</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1981,9 +2390,18 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>poison</t>
+      </rPr>
+      <t>ratio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1992,9 +2410,8 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 중독</t>
+      </rPr>
+      <t>: 비율 피해 (ex: 최대 체력 비례 피해 등)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2007,9 +2424,8 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>stun</t>
+      </rPr>
+      <t>atk_pwr</t>
     </r>
     <r>
       <rPr>
@@ -2018,9 +2434,8 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 기절</t>
+      </rPr>
+      <t xml:space="preserve"> : 공격력</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2033,20 +2448,8 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>element</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      </rPr>
+      <t>move_spd</t>
     </r>
     <r>
       <rPr>
@@ -2055,9 +2458,8 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 스킬의 공격 속성</t>
+      </rPr>
+      <t xml:space="preserve"> : 이동 속도 </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2070,20 +2472,8 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cooldown</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      </rPr>
+      <t>push_immune</t>
     </r>
     <r>
       <rPr>
@@ -2092,33 +2482,12 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 재사용 대기 시간</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Motion Change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VisualEffect Change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>범위 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect Area Reduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">효과의 유형 
-</t>
-    </r>
+      </rPr>
+      <t xml:space="preserve"> : 피격 이상 면역</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2127,9 +2496,18 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
+      </rPr>
+      <t>shield</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2138,32 +2516,12 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 피해형(DAMAGE)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
+      </rPr>
+      <t>: 보호막</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2172,9 +2530,18 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
+      </rPr>
+      <t>heal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2183,21 +2550,12 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 능력치 조절(STAT)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
+      </rPr>
+      <t>: 회복</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2206,9 +2564,18 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
+      </rPr>
+      <t>push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2217,32 +2584,12 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 특수 기능(SPECIAL) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+      </rPr>
+      <t>: 피격 이상</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2251,9 +2598,8 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
+      </rPr>
+      <t>poison</t>
     </r>
     <r>
       <rPr>
@@ -2262,21 +2608,12 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 스킬 제어(SKILL_CONTROL) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
+      </rPr>
+      <t xml:space="preserve"> : 중독</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2285,9 +2622,8 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
+      </rPr>
+      <t>stun</t>
     </r>
     <r>
       <rPr>
@@ -2296,21 +2632,12 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 오브젝트 제어(OBJECT_CONTROL) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
+      </rPr>
+      <t xml:space="preserve"> : 기절</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2319,9 +2646,18 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
+      </rPr>
+      <t>element</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2330,16 +2666,12 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 리소스 제어(RESOURCE_CONTROL)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">효과의 종류  </t>
-    </r>
+      </rPr>
+      <t>: 스킬의 공격 속성</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2348,9 +2680,18 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
+      </rPr>
+      <t>cooldown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2359,32 +2700,12 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 일반 효과 (DEFAULT)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
+      </rPr>
+      <t>: 재사용 대기 시간</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2393,9 +2714,18 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
+      </rPr>
+      <t>stagger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2404,21 +2734,12 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 버프 등 이로운 효과(BUFF) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
+      </rPr>
+      <t>: 무력화 수치</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2427,9 +2748,8 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
+      </rPr>
+      <t>creature</t>
     </r>
     <r>
       <rPr>
@@ -2438,16 +2758,12 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 디버프 등 해로운 효과 (DEBUFF)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>효과가 적용되는 방식</t>
-    </r>
+      </rPr>
+      <t xml:space="preserve"> : 소환수 ID (AI NPC)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2456,10 +2772,18 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0</t>
+      </rPr>
+      <t>projectile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2468,20 +2792,8 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 대미지 처리(DEAL)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      </rPr>
+      <t>: 투사체 ID</t>
     </r>
     <r>
       <rPr>
@@ -2490,10 +2802,12 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2502,9 +2816,8 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
+      </rPr>
+      <t>area</t>
     </r>
     <r>
       <rPr>
@@ -2513,21 +2826,12 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 고정 수치 증가(PLUS)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
+      </rPr>
+      <t xml:space="preserve"> : 영역 ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2536,9 +2840,8 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>11</t>
+      </rPr>
+      <t>*_file</t>
     </r>
     <r>
       <rPr>
@@ -2547,9 +2850,8 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 비율 증가(INCREASE) </t>
+      </rPr>
+      <t xml:space="preserve"> : 리소스 파일 변경</t>
     </r>
     <r>
       <rPr>
@@ -2558,21 +2860,12 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2581,9 +2874,8 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20</t>
+      </rPr>
+      <t>*_scale</t>
     </r>
     <r>
       <rPr>
@@ -2592,9 +2884,8 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 고정 수치 감소(MINUS) </t>
+      </rPr>
+      <t xml:space="preserve"> : 크기 변경 (파일 크기x)</t>
     </r>
     <r>
       <rPr>
@@ -2603,10 +2894,12 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2615,9 +2908,8 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>21</t>
+      </rPr>
+      <t>*_play_spd</t>
     </r>
     <r>
       <rPr>
@@ -2626,9 +2918,8 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 비율 감소(DECREASE)</t>
+      </rPr>
+      <t xml:space="preserve"> : 재생 속도 변경</t>
     </r>
     <r>
       <rPr>
@@ -2637,10 +2928,12 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2649,9 +2942,8 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>30</t>
+      </rPr>
+      <t>*_play_time</t>
     </r>
     <r>
       <rPr>
@@ -2660,21 +2952,22 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 부여(GRANT) </t>
+      </rPr>
+      <t xml:space="preserve"> : 재생 시간 변경</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2683,9 +2976,8 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>31</t>
+      </rPr>
+      <t>*_color</t>
     </r>
     <r>
       <rPr>
@@ -2694,32 +2986,8 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 변경 (CHANGE) </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 (리소스 제어)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res_attribute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>projectile</t>
+      </rPr>
+      <t xml:space="preserve"> : 색상 변경</t>
     </r>
     <r>
       <rPr>
@@ -2728,390 +2996,9 @@
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 투사체 ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>area</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 영역 ID</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>stagger</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 무력화 수치</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*_scale</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 크기 변경 (파일 크기x)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*_color</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 색상 변경</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리소스 속성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 속성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>creature</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 소환수 ID (AI NPC)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect Area Increase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>범위 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*_file</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 리소스 파일 변경</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*_play_spd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 재생 속도 변경</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*_play_time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 재생 시간 변경</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anim_file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound_file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vfx_file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VFX 크기 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VisualEffect Scale Change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vfx_scale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모션 재생 시작 시간 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Motion StartTime Change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anim_play_start_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모션 재생 속도 조절</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Motion PlaySpdeed Change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anim_play_spd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>받는 피해 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Incoming Damage Decrease</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>incoming_dmg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cri_incoming_dmg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3123,7 +3010,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3136,24 +3023,6 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -3175,15 +3044,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="4"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -3195,31 +3055,6 @@
       <b/>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF0070C0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="0" tint="-0.499984740745262"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -3251,14 +3086,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="8"/>
       <color theme="1"/>
@@ -3268,7 +3095,7 @@
     <font>
       <b/>
       <sz val="8"/>
-      <color theme="1" tint="0.34998626667073579"/>
+      <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -3276,12 +3103,79 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="4"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="10">
@@ -3340,7 +3234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -3364,29 +3258,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -3651,180 +3525,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </left>
       <right style="thin">
@@ -3838,216 +3538,371 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="177" fontId="10" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="9" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4374,645 +4229,657 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37A1609-374E-41E5-A884-CAD8C506CD05}">
   <dimension ref="B1:N64"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.8984375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="42.59765625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.69921875" style="4" customWidth="1"/>
-    <col min="8" max="9" width="8.796875" style="2"/>
-    <col min="10" max="16384" width="8.796875" style="4"/>
+    <col min="1" max="1" width="2.296875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="3.296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.8984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.296875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="11.8984375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="46.5" style="19" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="20" customWidth="1"/>
+    <col min="8" max="9" width="11.5" style="18" customWidth="1"/>
+    <col min="10" max="14" width="11.5" style="20" customWidth="1"/>
+    <col min="15" max="16384" width="8.796875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="51"/>
-    </row>
-    <row r="4" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="17"/>
-      <c r="C4" s="32" t="s">
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="60"/>
+    </row>
+    <row r="4" spans="2:14" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="21"/>
+      <c r="C4" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="53"/>
-    </row>
-    <row r="5" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="25" t="s">
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="62"/>
+    </row>
+    <row r="5" spans="2:14" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="33">
         <f>ROW(C5)-4</f>
         <v>1</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="26" t="s">
+      <c r="D5" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="55"/>
-    </row>
-    <row r="6" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="17"/>
-      <c r="C6" s="29">
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="64"/>
+    </row>
+    <row r="6" spans="2:14" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="21"/>
+      <c r="C6" s="34">
         <f t="shared" ref="C6:C10" si="0">ROW(C6)-4</f>
         <v>2</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="47"/>
-    </row>
-    <row r="7" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="17"/>
-      <c r="C7" s="29">
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="66"/>
+    </row>
+    <row r="7" spans="2:14" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="21"/>
+      <c r="C7" s="34">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="45" t="s">
-        <v>283</v>
-      </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="47"/>
-    </row>
-    <row r="8" spans="2:14" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="17"/>
-      <c r="C8" s="29">
+      <c r="F7" s="67" t="s">
+        <v>290</v>
+      </c>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="66"/>
+    </row>
+    <row r="8" spans="2:14" s="19" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="21"/>
+      <c r="C8" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="47"/>
-    </row>
-    <row r="9" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="17"/>
-      <c r="C9" s="29">
+      <c r="F8" s="67" t="s">
+        <v>291</v>
+      </c>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="66"/>
+    </row>
+    <row r="9" spans="2:14" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="21"/>
+      <c r="C9" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="47"/>
-    </row>
-    <row r="10" spans="2:14" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="17"/>
-      <c r="C10" s="29">
+      <c r="F9" s="65" t="s">
+        <v>292</v>
+      </c>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="66"/>
+    </row>
+    <row r="10" spans="2:14" s="19" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="21"/>
+      <c r="C10" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="47"/>
+      <c r="F10" s="67" t="s">
+        <v>293</v>
+      </c>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="66"/>
     </row>
     <row r="11" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="49"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="69"/>
     </row>
     <row r="13" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C13" s="2"/>
+      <c r="C13" s="18"/>
     </row>
     <row r="14" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C15" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="51"/>
+      <c r="E15" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="17"/>
+      <c r="C16" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="D16" s="53"/>
+      <c r="E16" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="17"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="28" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C20" s="52" t="s">
         <v>252</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="F15" s="18" t="s">
+      <c r="D20" s="53"/>
+      <c r="E20" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="26" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="26" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C23" s="56"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C24" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="D24" s="53"/>
+      <c r="E24" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C25" s="54"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="26" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C26" s="54"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="26" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C27" s="54"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="26" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C28" s="54"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C29" s="54"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C30" s="54"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="26" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C31" s="54"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="26" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C32" s="54"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="26" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C33" s="56"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C34" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="D34" s="53"/>
+      <c r="E34" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C35" s="54"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="26" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C36" s="54"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="26" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C37" s="54"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="26" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C38" s="56"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C39" s="52" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="1"/>
-      <c r="C16" s="36" t="s">
-        <v>253</v>
-      </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="1"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="24" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="20" t="s">
+      <c r="D39" s="53"/>
+      <c r="E39" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C40" s="54"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="26" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C41" s="54"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="26" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C42" s="56"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="28" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C43" s="52" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C20" s="36" t="s">
+      <c r="D43" s="53"/>
+      <c r="E43" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="17"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="G44" s="20"/>
+    </row>
+    <row r="45" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="17"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="G45" s="20"/>
+    </row>
+    <row r="46" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="17"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="G46" s="20"/>
+    </row>
+    <row r="47" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="17"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="G47" s="20"/>
+    </row>
+    <row r="48" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="17"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="G48" s="20"/>
+    </row>
+    <row r="49" spans="2:7" s="18" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="17"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="19" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="19" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="20" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C24" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="19" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C26" s="38"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="19" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C27" s="38"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="19" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C28" s="38"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="21" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C29" s="38"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C30" s="38"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="19" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C31" s="38"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="19" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C32" s="38"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="19" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C33" s="40"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="20" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C34" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C35" s="38"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="19" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C36" s="38"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="19" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C37" s="38"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="19" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C38" s="40"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="20" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C39" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C40" s="38"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="19" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C41" s="38"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="19" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C42" s="40"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="20" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C43" s="36" t="s">
-        <v>285</v>
-      </c>
-      <c r="D43" s="37"/>
-      <c r="E43" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="1"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="1"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="1"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="1"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="1"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="2:7" s="2" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="1"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="1"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="1"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="1"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="54" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="1"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="1"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="1"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="1"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="1"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="4"/>
-    </row>
-    <row r="59" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="1"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="4"/>
-    </row>
-    <row r="60" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="1"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="4"/>
-    </row>
-    <row r="61" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="1"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="4"/>
-    </row>
-    <row r="62" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="1"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="4"/>
-    </row>
-    <row r="63" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="1"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="4"/>
-    </row>
-    <row r="64" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="1"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="4"/>
+      <c r="G49" s="20"/>
+    </row>
+    <row r="50" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="17"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="20"/>
+    </row>
+    <row r="51" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="17"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="20"/>
+    </row>
+    <row r="52" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="17"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="20"/>
+    </row>
+    <row r="54" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="17"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="20"/>
+    </row>
+    <row r="55" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="17"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="20"/>
+    </row>
+    <row r="56" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B56" s="17"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="20"/>
+    </row>
+    <row r="57" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="17"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="20"/>
+    </row>
+    <row r="58" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="17"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="20"/>
+    </row>
+    <row r="59" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="17"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="20"/>
+    </row>
+    <row r="60" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="17"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="20"/>
+    </row>
+    <row r="61" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="17"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="20"/>
+    </row>
+    <row r="62" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="17"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="20"/>
+    </row>
+    <row r="63" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="17"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="20"/>
+    </row>
+    <row r="64" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B64" s="17"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C43:D49"/>
+    <mergeCell ref="E43:E49"/>
+    <mergeCell ref="F8:N8"/>
+    <mergeCell ref="F9:N9"/>
+    <mergeCell ref="F11:N11"/>
+    <mergeCell ref="F10:N10"/>
+    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="F5:N5"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="F7:N7"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="E16:E19"/>
@@ -5027,17 +4894,6 @@
     <mergeCell ref="E24:E28"/>
     <mergeCell ref="E29:E33"/>
     <mergeCell ref="E34:E38"/>
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="F4:N4"/>
-    <mergeCell ref="F5:N5"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="C43:D49"/>
-    <mergeCell ref="E43:E49"/>
-    <mergeCell ref="F8:N8"/>
-    <mergeCell ref="F9:N9"/>
-    <mergeCell ref="F11:N11"/>
-    <mergeCell ref="F10:N10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5050,2421 +4906,2422 @@
   <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" style="67" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.59765625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="25.796875" style="10" customWidth="1"/>
-    <col min="4" max="5" width="9.19921875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="13.59765625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="8.8984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.296875" style="11" customWidth="1"/>
-    <col min="9" max="10" width="15.69921875" style="11" customWidth="1"/>
-    <col min="11" max="14" width="18.69921875" style="9" customWidth="1"/>
-    <col min="15" max="16384" width="8.796875" style="9"/>
+    <col min="1" max="1" width="19.59765625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.59765625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="25.796875" style="8" customWidth="1"/>
+    <col min="4" max="5" width="9.19921875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="8.8984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.296875" style="9" customWidth="1"/>
+    <col min="9" max="10" width="15.69921875" style="9" customWidth="1"/>
+    <col min="11" max="14" width="18.69921875" style="7" customWidth="1"/>
+    <col min="15" max="16384" width="8.796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>100</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="8">
         <v>0</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="8">
         <v>0</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>101</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>0</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <v>0</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>102</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>0</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <v>0</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>1000</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="13" t="s">
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>1001</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>1002</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>1003</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D8" s="10">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10">
-        <v>1</v>
-      </c>
-      <c r="F8" s="13" t="s">
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>1004</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="10">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10">
-        <v>1</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>1005</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="13" t="s">
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>1006</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D11" s="10">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10">
-        <v>1</v>
-      </c>
-      <c r="F11" s="13" t="s">
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>1007</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="10">
-        <v>1</v>
-      </c>
-      <c r="E12" s="10">
-        <v>1</v>
-      </c>
-      <c r="F12" s="13" t="s">
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <v>1008</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D13" s="10">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
-      <c r="F13" s="13" t="s">
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <v>1009</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="10">
-        <v>1</v>
-      </c>
-      <c r="E14" s="10">
-        <v>1</v>
-      </c>
-      <c r="F14" s="13" t="s">
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="8">
         <v>1010</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="10">
-        <v>1</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="F15" s="13" t="s">
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="8">
         <v>1011</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D16" s="10">
-        <v>1</v>
-      </c>
-      <c r="E16" s="10">
-        <v>1</v>
-      </c>
-      <c r="F16" s="13" t="s">
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="8">
         <v>1012</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D17" s="10">
-        <v>1</v>
-      </c>
-      <c r="E17" s="10">
-        <v>1</v>
-      </c>
-      <c r="F17" s="13" t="s">
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="8">
         <v>1013</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D18" s="10">
-        <v>1</v>
-      </c>
-      <c r="E18" s="10">
-        <v>1</v>
-      </c>
-      <c r="F18" s="13" t="s">
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="8">
         <v>1014</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D19" s="10">
-        <v>1</v>
-      </c>
-      <c r="E19" s="10">
-        <v>1</v>
-      </c>
-      <c r="F19" s="13" t="s">
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="8">
         <v>1015</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D20" s="10">
-        <v>1</v>
-      </c>
-      <c r="E20" s="10">
-        <v>1</v>
-      </c>
-      <c r="F20" s="13" t="s">
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="8">
         <v>1016</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D21" s="10">
-        <v>1</v>
-      </c>
-      <c r="E21" s="10">
-        <v>1</v>
-      </c>
-      <c r="F21" s="13" t="s">
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="8">
         <v>1017</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D22" s="10">
-        <v>1</v>
-      </c>
-      <c r="E22" s="10">
-        <v>1</v>
-      </c>
-      <c r="F22" s="13" t="s">
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="8">
         <v>1018</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="10">
-        <v>1</v>
-      </c>
-      <c r="E23" s="10">
-        <v>1</v>
-      </c>
-      <c r="F23" s="13" t="s">
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="8">
         <v>1019</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D24" s="10">
-        <v>1</v>
-      </c>
-      <c r="E24" s="10">
-        <v>1</v>
-      </c>
-      <c r="F24" s="13" t="s">
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="8">
         <v>1020</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D25" s="10">
-        <v>1</v>
-      </c>
-      <c r="E25" s="10">
-        <v>1</v>
-      </c>
-      <c r="F25" s="13" t="s">
+      <c r="D25" s="8">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="8">
         <v>1021</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D26" s="10">
-        <v>1</v>
-      </c>
-      <c r="E26" s="10">
-        <v>1</v>
-      </c>
-      <c r="F26" s="13" t="s">
+      <c r="D26" s="8">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="8">
         <v>1022</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D27" s="10">
-        <v>1</v>
-      </c>
-      <c r="E27" s="10">
-        <v>1</v>
-      </c>
-      <c r="F27" s="13" t="s">
+      <c r="D27" s="8">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="8">
         <v>1023</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D28" s="10">
-        <v>1</v>
-      </c>
-      <c r="E28" s="10">
-        <v>1</v>
-      </c>
-      <c r="F28" s="13" t="s">
+      <c r="D28" s="8">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="8">
         <v>1024</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D29" s="10">
-        <v>1</v>
-      </c>
-      <c r="E29" s="10">
-        <v>1</v>
-      </c>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="8">
+        <v>1</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1</v>
+      </c>
+      <c r="F29" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="8">
         <v>1025</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D30" s="10">
-        <v>1</v>
-      </c>
-      <c r="E30" s="10">
-        <v>1</v>
-      </c>
-      <c r="F30" s="13" t="s">
+      <c r="D30" s="8">
+        <v>1</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1</v>
+      </c>
+      <c r="F30" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="8">
         <v>1026</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D31" s="10">
-        <v>1</v>
-      </c>
-      <c r="E31" s="10">
-        <v>1</v>
-      </c>
-      <c r="F31" s="13" t="s">
+      <c r="D31" s="8">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1</v>
+      </c>
+      <c r="F31" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="8">
         <v>1027</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="10">
-        <v>1</v>
-      </c>
-      <c r="E32" s="10">
-        <v>1</v>
-      </c>
-      <c r="F32" s="13" t="s">
+      <c r="D32" s="8">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="8">
         <v>1028</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="10">
-        <v>1</v>
-      </c>
-      <c r="E33" s="10">
-        <v>1</v>
-      </c>
-      <c r="F33" s="13" t="s">
+      <c r="D33" s="8">
+        <v>1</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1</v>
+      </c>
+      <c r="F33" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A34" s="65" t="s">
-        <v>313</v>
-      </c>
-      <c r="B34" s="10">
+      <c r="A34" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="B34" s="8">
         <v>1029</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="D34" s="10">
-        <v>1</v>
-      </c>
-      <c r="E34" s="10">
-        <v>1</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="G34" s="13" t="s">
+      <c r="C34" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-    </row>
-    <row r="35" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="65" t="s">
+      <c r="H34" s="5"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="8">
         <v>1990</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="8">
         <v>0</v>
       </c>
-      <c r="E35" s="10">
-        <v>1</v>
-      </c>
-      <c r="F35" s="13" t="s">
+      <c r="E35" s="8">
+        <v>1</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="6">
         <v>10</v>
       </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-    </row>
-    <row r="36" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="65" t="s">
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="8">
         <v>1991</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="8">
         <v>0</v>
       </c>
-      <c r="E36" s="10">
-        <v>1</v>
-      </c>
-      <c r="F36" s="13" t="s">
+      <c r="E36" s="8">
+        <v>1</v>
+      </c>
+      <c r="F36" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="6">
         <v>10</v>
       </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A37" s="65" t="s">
+      <c r="A37" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="8">
         <v>2000</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="8">
         <v>2</v>
       </c>
-      <c r="E37" s="10">
-        <v>1</v>
-      </c>
-      <c r="F37" s="13" t="s">
+      <c r="E37" s="8">
+        <v>1</v>
+      </c>
+      <c r="F37" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="11" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A38" s="65" t="s">
+      <c r="A38" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="8">
         <v>2001</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="8">
         <v>2</v>
       </c>
-      <c r="E38" s="10">
-        <v>1</v>
-      </c>
-      <c r="F38" s="13" t="s">
+      <c r="E38" s="8">
+        <v>1</v>
+      </c>
+      <c r="F38" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A39" s="65" t="s">
+      <c r="A39" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="8">
         <v>2002</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="8">
         <v>2</v>
       </c>
-      <c r="E39" s="10">
-        <v>1</v>
-      </c>
-      <c r="F39" s="13" t="s">
+      <c r="E39" s="8">
+        <v>1</v>
+      </c>
+      <c r="F39" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="8">
         <v>2003</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="8">
         <v>2</v>
       </c>
-      <c r="E40" s="10">
-        <v>1</v>
-      </c>
-      <c r="F40" s="13" t="s">
+      <c r="E40" s="8">
+        <v>1</v>
+      </c>
+      <c r="F40" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="8">
         <v>2004</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="8">
         <v>2</v>
       </c>
-      <c r="E41" s="10">
-        <v>1</v>
-      </c>
-      <c r="F41" s="13" t="s">
+      <c r="E41" s="8">
+        <v>1</v>
+      </c>
+      <c r="F41" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A42" s="65" t="s">
+      <c r="A42" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="8">
         <v>2005</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="8">
         <v>2</v>
       </c>
-      <c r="E42" s="10">
-        <v>1</v>
-      </c>
-      <c r="F42" s="13" t="s">
+      <c r="E42" s="8">
+        <v>1</v>
+      </c>
+      <c r="F42" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A43" s="65" t="s">
+      <c r="A43" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="8">
         <v>2006</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="8">
         <v>2</v>
       </c>
-      <c r="E43" s="10">
-        <v>1</v>
-      </c>
-      <c r="F43" s="13" t="s">
+      <c r="E43" s="8">
+        <v>1</v>
+      </c>
+      <c r="F43" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A44" s="65" t="s">
+      <c r="A44" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="8">
         <v>2007</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="8">
         <v>2</v>
       </c>
-      <c r="E44" s="10">
-        <v>1</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="G44" s="13" t="s">
+      <c r="E44" s="8">
+        <v>1</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="G44" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A45" s="65" t="s">
+      <c r="A45" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="8">
         <v>2008</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="8">
         <v>2</v>
       </c>
-      <c r="E45" s="10">
-        <v>1</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="G45" s="13" t="s">
+      <c r="E45" s="8">
+        <v>1</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="G45" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-    </row>
-    <row r="46" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="66" t="s">
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+    </row>
+    <row r="46" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="8">
         <v>2990</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="8">
         <v>0</v>
       </c>
-      <c r="E46" s="10">
-        <v>1</v>
-      </c>
-      <c r="F46" s="13" t="s">
+      <c r="E46" s="8">
+        <v>1</v>
+      </c>
+      <c r="F46" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="6">
         <v>10</v>
       </c>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-    </row>
-    <row r="47" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="65" t="s">
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="8">
         <v>3000</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="10">
-        <v>1</v>
-      </c>
-      <c r="E47" s="10">
+      <c r="D47" s="8">
+        <v>1</v>
+      </c>
+      <c r="E47" s="8">
         <v>2</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="G47" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-    </row>
-    <row r="48" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="65" t="s">
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="8">
         <v>3001</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="10">
-        <v>1</v>
-      </c>
-      <c r="E48" s="10">
+      <c r="D48" s="8">
+        <v>1</v>
+      </c>
+      <c r="E48" s="8">
         <v>2</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G48" s="13" t="s">
+      <c r="G48" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-    </row>
-    <row r="49" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="65" t="s">
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="8">
         <v>3002</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="10">
-        <v>1</v>
-      </c>
-      <c r="E49" s="10">
+      <c r="D49" s="8">
+        <v>1</v>
+      </c>
+      <c r="E49" s="8">
         <v>2</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="13" t="s">
+      <c r="G49" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A50" s="65" t="s">
+      <c r="A50" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="8">
         <v>3003</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D50" s="10">
-        <v>1</v>
-      </c>
-      <c r="E50" s="10">
+      <c r="D50" s="8">
+        <v>1</v>
+      </c>
+      <c r="E50" s="8">
         <v>2</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G50" s="13" t="s">
+      <c r="G50" s="11" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A51" s="65" t="s">
+      <c r="A51" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="8">
         <v>3004</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D51" s="10">
-        <v>1</v>
-      </c>
-      <c r="E51" s="10">
+      <c r="D51" s="8">
+        <v>1</v>
+      </c>
+      <c r="E51" s="8">
         <v>2</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G51" s="13" t="s">
+      <c r="G51" s="11" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="65" t="s">
+    <row r="52" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="8">
         <v>3005</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="10">
-        <v>1</v>
-      </c>
-      <c r="E52" s="10">
+      <c r="D52" s="8">
+        <v>1</v>
+      </c>
+      <c r="E52" s="8">
         <v>2</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G52" s="13" t="s">
+      <c r="G52" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-    </row>
-    <row r="53" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="65" t="s">
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="8">
         <v>3006</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D53" s="10">
-        <v>1</v>
-      </c>
-      <c r="E53" s="10">
+      <c r="D53" s="8">
+        <v>1</v>
+      </c>
+      <c r="E53" s="8">
         <v>2</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G53" s="13" t="s">
+      <c r="G53" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A54" s="65" t="s">
+      <c r="A54" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="8">
         <v>4000</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="8">
         <v>2</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="8">
         <v>2</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F54" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G54" s="13" t="s">
+      <c r="G54" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-    </row>
-    <row r="55" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="65" t="s">
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+    </row>
+    <row r="55" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55" s="8">
         <v>4001</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="8">
         <v>2</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="8">
         <v>2</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G55" s="13" t="s">
+      <c r="G55" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A56" s="65" t="s">
+      <c r="A56" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56" s="8">
         <v>4002</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="8">
         <v>2</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56" s="8">
         <v>2</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G56" s="13" t="s">
+      <c r="G56" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A57" s="65" t="s">
+      <c r="A57" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="8">
         <v>4003</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="8">
         <v>2</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="8">
         <v>2</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G57" s="13" t="s">
+      <c r="G57" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A58" s="65" t="s">
+      <c r="A58" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B58" s="8">
         <v>4004</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="8">
         <v>2</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E58" s="8">
         <v>2</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G58" s="13" t="s">
+      <c r="G58" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A59" s="65" t="s">
+      <c r="A59" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59" s="8">
         <v>4005</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="8">
         <v>2</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E59" s="8">
         <v>2</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G59" s="13" t="s">
+      <c r="G59" s="11" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A60" s="65" t="s">
+      <c r="A60" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60" s="8">
         <v>4006</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="8">
         <v>2</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E60" s="8">
         <v>2</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G60" s="13" t="s">
+      <c r="G60" s="11" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A61" s="65" t="s">
+      <c r="A61" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61" s="8">
         <v>4007</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="8">
         <v>2</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E61" s="8">
         <v>2</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G61" s="13" t="s">
+      <c r="G61" s="11" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A62" s="65" t="s">
+      <c r="A62" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62" s="8">
         <v>4008</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="8">
         <v>2</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E62" s="8">
         <v>2</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G62" s="13" t="s">
+      <c r="G62" s="11" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A63" s="65" t="s">
+      <c r="A63" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63" s="8">
         <v>4009</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="8">
         <v>2</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E63" s="8">
         <v>2</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G63" s="13" t="s">
+      <c r="G63" s="11" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A64" s="65" t="s">
+      <c r="A64" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="8">
         <v>4010</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="8">
         <v>2</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E64" s="8">
         <v>2</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G64" s="13" t="s">
+      <c r="G64" s="11" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A65" s="65" t="s">
+      <c r="A65" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65" s="8">
         <v>4011</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="8">
         <v>2</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E65" s="8">
         <v>2</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G65" s="13" t="s">
+      <c r="G65" s="11" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A66" s="65" t="s">
+      <c r="A66" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B66" s="10">
+      <c r="B66" s="8">
         <v>4012</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66" s="8">
         <v>2</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E66" s="8">
         <v>2</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G66" s="13" t="s">
+      <c r="G66" s="11" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A67" s="65" t="s">
+      <c r="A67" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B67" s="8">
         <v>4013</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="8">
         <v>2</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E67" s="8">
         <v>2</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G67" s="13" t="s">
+      <c r="G67" s="11" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A68" s="65" t="s">
+      <c r="A68" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B68" s="8">
         <v>4014</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="8">
         <v>2</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="8">
         <v>2</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G68" s="13" t="s">
+      <c r="G68" s="11" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A69" s="65" t="s">
+      <c r="A69" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B69" s="8">
         <v>5000</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D69" s="8">
         <v>0</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E69" s="8">
         <v>3</v>
       </c>
-      <c r="F69" s="13" t="s">
+      <c r="F69" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="G69" s="13" t="s">
+      <c r="G69" s="11" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A70" s="65" t="s">
+      <c r="A70" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B70" s="8">
         <v>5001</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="8">
         <v>0</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E70" s="8">
         <v>3</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G70" s="13" t="s">
+      <c r="G70" s="11" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A71" s="65" t="s">
+      <c r="A71" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B71" s="8">
         <v>5002</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D71" s="10">
-        <v>1</v>
-      </c>
-      <c r="E71" s="10">
+      <c r="D71" s="8">
+        <v>1</v>
+      </c>
+      <c r="E71" s="8">
         <v>3</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G71" s="13" t="s">
+      <c r="G71" s="11" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A72" s="65" t="s">
+      <c r="A72" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B72" s="8">
         <v>5003</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D72" s="10">
-        <v>1</v>
-      </c>
-      <c r="E72" s="10">
+      <c r="D72" s="8">
+        <v>1</v>
+      </c>
+      <c r="E72" s="8">
         <v>3</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G72" s="13" t="s">
+      <c r="G72" s="11" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A73" s="65" t="s">
+      <c r="A73" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B73" s="8">
         <v>5004</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="D73" s="10">
-        <v>1</v>
-      </c>
-      <c r="E73" s="10">
+      <c r="D73" s="8">
+        <v>1</v>
+      </c>
+      <c r="E73" s="8">
         <v>3</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="G73" s="13" t="s">
+      <c r="G73" s="11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A74" s="65" t="s">
+      <c r="A74" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B74" s="8">
         <v>5005</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D74" s="10">
-        <v>1</v>
-      </c>
-      <c r="E74" s="10">
+      <c r="D74" s="8">
+        <v>1</v>
+      </c>
+      <c r="E74" s="8">
         <v>3</v>
       </c>
-      <c r="F74" s="13" t="s">
+      <c r="F74" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G74" s="13">
+      <c r="G74" s="11">
         <v>10</v>
       </c>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A75" s="65" t="s">
+      <c r="A75" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B75" s="10">
+      <c r="B75" s="8">
         <v>5006</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D75" s="10">
-        <v>1</v>
-      </c>
-      <c r="E75" s="10">
+      <c r="D75" s="8">
+        <v>1</v>
+      </c>
+      <c r="E75" s="8">
         <v>3</v>
       </c>
-      <c r="F75" s="13" t="s">
+      <c r="F75" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G75" s="11">
         <v>10</v>
       </c>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A76" s="65" t="s">
-        <v>297</v>
-      </c>
-      <c r="B76" s="10">
+      <c r="A76" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="B76" s="8">
         <v>5500</v>
       </c>
-      <c r="C76" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="D76" s="10">
-        <v>1</v>
-      </c>
-      <c r="E76" s="10">
+      <c r="C76" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D76" s="8">
+        <v>1</v>
+      </c>
+      <c r="E76" s="8">
         <v>3</v>
       </c>
-      <c r="F76" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="G76" s="13" t="s">
+      <c r="F76" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="G76" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A77" s="65" t="s">
+      <c r="A77" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="B77" s="8">
+        <v>5501</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D77" s="8">
+        <v>2</v>
+      </c>
+      <c r="E77" s="8">
+        <v>3</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A78" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B78" s="8">
+        <v>6000</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D78" s="8">
+        <v>0</v>
+      </c>
+      <c r="E78" s="8">
+        <v>4</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A79" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B79" s="8">
+        <v>6001</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D79" s="8">
+        <v>0</v>
+      </c>
+      <c r="E79" s="8">
+        <v>4</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A80" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B80" s="8">
+        <v>6002</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D80" s="8">
+        <v>0</v>
+      </c>
+      <c r="E80" s="8">
+        <v>4</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A81" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B81" s="8">
+        <v>7000</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D81" s="8">
+        <v>0</v>
+      </c>
+      <c r="E81" s="8">
+        <v>5</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A82" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B82" s="8">
+        <v>7001</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D82" s="8">
+        <v>0</v>
+      </c>
+      <c r="E82" s="8">
+        <v>5</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A83" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B83" s="8">
+        <v>7002</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D83" s="8">
+        <v>0</v>
+      </c>
+      <c r="E83" s="8">
+        <v>5</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A84" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B84" s="8">
+        <v>7100</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D84" s="8">
+        <v>0</v>
+      </c>
+      <c r="E84" s="8">
+        <v>5</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A85" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="B77" s="10">
-        <v>5501</v>
-      </c>
-      <c r="C77" s="10" t="s">
+      <c r="B85" s="8">
+        <v>7101</v>
+      </c>
+      <c r="C85" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="D77" s="10">
-        <v>2</v>
-      </c>
-      <c r="E77" s="10">
-        <v>3</v>
-      </c>
-      <c r="F77" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A78" s="65" t="s">
-        <v>239</v>
-      </c>
-      <c r="B78" s="10">
-        <v>6000</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="D78" s="10">
+      <c r="D85" s="8">
         <v>0</v>
       </c>
-      <c r="E78" s="10">
-        <v>4</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="G78" s="13" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A79" s="65" t="s">
-        <v>240</v>
-      </c>
-      <c r="B79" s="10">
-        <v>6001</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="D79" s="10">
+      <c r="E85" s="8">
+        <v>5</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A86" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="B86" s="8">
+        <v>7102</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D86" s="8">
         <v>0</v>
       </c>
-      <c r="E79" s="10">
-        <v>4</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="G79" s="13" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A80" s="65" t="s">
-        <v>242</v>
-      </c>
-      <c r="B80" s="10">
-        <v>6002</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="D80" s="10">
+      <c r="E86" s="8">
+        <v>5</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A87" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B87" s="8">
+        <v>7200</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D87" s="8">
         <v>0</v>
       </c>
-      <c r="E80" s="10">
-        <v>4</v>
-      </c>
-      <c r="F80" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="G80" s="13" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A81" s="65" t="s">
-        <v>235</v>
-      </c>
-      <c r="B81" s="10">
-        <v>7000</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="D81" s="10">
-        <v>0</v>
-      </c>
-      <c r="E81" s="10">
+      <c r="E87" s="8">
         <v>5</v>
       </c>
-      <c r="F81" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="G81" s="13" t="s">
+      <c r="F87" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="G87" s="11" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A82" s="65" t="s">
-        <v>232</v>
-      </c>
-      <c r="B82" s="10">
-        <v>7001</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="D82" s="10">
-        <v>0</v>
-      </c>
-      <c r="E82" s="10">
-        <v>5</v>
-      </c>
-      <c r="F82" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="G82" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A83" s="65" t="s">
-        <v>304</v>
-      </c>
-      <c r="B83" s="10">
-        <v>7002</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="D83" s="10">
-        <v>0</v>
-      </c>
-      <c r="E83" s="10">
-        <v>5</v>
-      </c>
-      <c r="F83" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="G83" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A84" s="65" t="s">
-        <v>234</v>
-      </c>
-      <c r="B84" s="10">
-        <v>7100</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="D84" s="10">
-        <v>0</v>
-      </c>
-      <c r="E84" s="10">
-        <v>5</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="G84" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A85" s="65" t="s">
-        <v>307</v>
-      </c>
-      <c r="B85" s="10">
-        <v>7101</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="D85" s="10">
-        <v>0</v>
-      </c>
-      <c r="E85" s="10">
-        <v>5</v>
-      </c>
-      <c r="F85" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="G85" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A86" s="65" t="s">
-        <v>310</v>
-      </c>
-      <c r="B86" s="10">
-        <v>7102</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="D86" s="10">
-        <v>0</v>
-      </c>
-      <c r="E86" s="10">
-        <v>5</v>
-      </c>
-      <c r="F86" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="G86" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A87" s="65" t="s">
-        <v>236</v>
-      </c>
-      <c r="B87" s="10">
-        <v>7200</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="D87" s="10">
-        <v>0</v>
-      </c>
-      <c r="E87" s="10">
-        <v>5</v>
-      </c>
-      <c r="F87" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="G87" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C90" s="8"/>
+      <c r="C90" s="6"/>
     </row>
     <row r="114" spans="8:14" x14ac:dyDescent="0.4">
-      <c r="H114" s="7"/>
-      <c r="I114" s="7"/>
-      <c r="J114" s="7"/>
-      <c r="K114" s="8"/>
-      <c r="L114" s="8"/>
-      <c r="M114" s="8"/>
-      <c r="N114" s="8"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="6"/>
+      <c r="N114" s="6"/>
     </row>
     <row r="115" spans="8:14" x14ac:dyDescent="0.4">
-      <c r="H115" s="7"/>
-      <c r="I115" s="7"/>
-      <c r="J115" s="7"/>
-      <c r="K115" s="8"/>
-      <c r="L115" s="8"/>
-      <c r="M115" s="8"/>
-      <c r="N115" s="8"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/로스트아크/데이터테이블/1차완성/Effect_Table.xlsx
+++ b/로스트아크/데이터테이블/1차완성/Effect_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\1차완성\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DAD3D0-488D-4B27-9028-86C2B0A9322E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C30519-9A5B-4FEF-94D5-89788CBCC335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="3" r:id="rId1"/>
@@ -1669,18 +1669,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>anim_file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound_file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vfx_file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VFX 크기 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1698,10 +1686,6 @@
   </si>
   <si>
     <t>Motion StartTime Change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anim_play_start_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2999,6 +2983,22 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anim_start_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vfx_res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anim_res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound_res</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3817,39 +3817,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3868,8 +3835,29 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3889,20 +3877,32 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4229,8 +4229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37A1609-374E-41E5-A884-CAD8C506CD05}">
   <dimension ref="B1:N64"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -4249,11 +4249,11 @@
   <sheetData>
     <row r="1" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
     </row>
     <row r="3" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="39" t="s">
@@ -4265,17 +4265,17 @@
       <c r="E3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="60"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="56"/>
     </row>
     <row r="4" spans="2:14" s="19" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B4" s="21"/>
@@ -4288,17 +4288,17 @@
       <c r="E4" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="62"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="58"/>
     </row>
     <row r="5" spans="2:14" s="19" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B5" s="22" t="s">
@@ -4314,17 +4314,17 @@
       <c r="E5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="64"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="60"/>
     </row>
     <row r="6" spans="2:14" s="19" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B6" s="21"/>
@@ -4338,17 +4338,17 @@
       <c r="E6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="66"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="52"/>
     </row>
     <row r="7" spans="2:14" s="19" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B7" s="21"/>
@@ -4362,22 +4362,22 @@
       <c r="E7" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="67" t="s">
-        <v>290</v>
-      </c>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="66"/>
+      <c r="F7" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="52"/>
     </row>
     <row r="8" spans="2:14" s="19" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="21"/>
       <c r="C8" s="34">
-        <f t="shared" si="0"/>
+        <f>ROW(C8)-4</f>
         <v>4</v>
       </c>
       <c r="D8" s="32" t="s">
@@ -4386,17 +4386,17 @@
       <c r="E8" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="67" t="s">
-        <v>291</v>
-      </c>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="66"/>
+      <c r="F8" s="50" t="s">
+        <v>287</v>
+      </c>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="52"/>
     </row>
     <row r="9" spans="2:14" s="19" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B9" s="21"/>
@@ -4410,17 +4410,17 @@
       <c r="E9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="65" t="s">
-        <v>292</v>
-      </c>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="66"/>
+      <c r="F9" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="52"/>
     </row>
     <row r="10" spans="2:14" s="19" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="21"/>
@@ -4434,48 +4434,48 @@
       <c r="E10" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="67" t="s">
-        <v>293</v>
-      </c>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="66"/>
+      <c r="F10" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="52"/>
     </row>
     <row r="11" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C11" s="35"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="69"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
     </row>
     <row r="13" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C13" s="18"/>
     </row>
     <row r="14" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C14" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
+      <c r="C14" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
       <c r="F14" s="20"/>
     </row>
     <row r="15" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="51"/>
+      <c r="D15" s="68"/>
       <c r="E15" s="23" t="s">
         <v>250</v>
       </c>
@@ -4485,10 +4485,10 @@
     </row>
     <row r="16" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="17"/>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="D16" s="53"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="47" t="s">
         <v>76</v>
       </c>
@@ -4499,35 +4499,35 @@
     </row>
     <row r="17" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B17" s="17"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="48"/>
       <c r="F17" s="26" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="48"/>
       <c r="F18" s="27" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
       <c r="E19" s="49"/>
       <c r="F19" s="28" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="D20" s="53"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="47" t="s">
         <v>75</v>
       </c>
@@ -4536,34 +4536,34 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="48"/>
       <c r="F21" s="26" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="48"/>
       <c r="F22" s="26" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="56"/>
-      <c r="D23" s="57"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="46"/>
       <c r="E23" s="49"/>
       <c r="F23" s="28" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="D24" s="53"/>
+      <c r="D24" s="42"/>
       <c r="E24" s="47" t="s">
         <v>81</v>
       </c>
@@ -4572,40 +4572,40 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="48"/>
       <c r="F25" s="26" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C26" s="54"/>
-      <c r="D26" s="55"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="44"/>
       <c r="E26" s="48"/>
       <c r="F26" s="26" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C27" s="54"/>
-      <c r="D27" s="55"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="48"/>
       <c r="F27" s="26" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C28" s="54"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="58"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="69"/>
       <c r="F28" s="29" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C29" s="54"/>
-      <c r="D29" s="55"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="44"/>
       <c r="E29" s="48" t="s">
         <v>77</v>
       </c>
@@ -4614,42 +4614,42 @@
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C30" s="54"/>
-      <c r="D30" s="55"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="44"/>
       <c r="E30" s="48"/>
       <c r="F30" s="26" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C31" s="54"/>
-      <c r="D31" s="55"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="44"/>
       <c r="E31" s="48"/>
       <c r="F31" s="26" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C32" s="54"/>
-      <c r="D32" s="55"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="44"/>
       <c r="E32" s="48"/>
       <c r="F32" s="26" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C33" s="56"/>
-      <c r="D33" s="57"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="49"/>
       <c r="F33" s="28" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C34" s="52" t="s">
+      <c r="C34" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="D34" s="53"/>
+      <c r="D34" s="42"/>
       <c r="E34" s="47" t="s">
         <v>85</v>
       </c>
@@ -4658,42 +4658,42 @@
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C35" s="54"/>
-      <c r="D35" s="55"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="44"/>
       <c r="E35" s="48"/>
       <c r="F35" s="26" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C36" s="54"/>
-      <c r="D36" s="55"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="44"/>
       <c r="E36" s="48"/>
       <c r="F36" s="26" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C37" s="54"/>
-      <c r="D37" s="55"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="44"/>
       <c r="E37" s="48"/>
       <c r="F37" s="26" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C38" s="56"/>
-      <c r="D38" s="57"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="46"/>
       <c r="E38" s="49"/>
       <c r="F38" s="28" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C39" s="52" t="s">
+      <c r="C39" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="D39" s="53"/>
+      <c r="D39" s="42"/>
       <c r="E39" s="47" t="s">
         <v>243</v>
       </c>
@@ -4702,34 +4702,34 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C40" s="54"/>
-      <c r="D40" s="55"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="44"/>
       <c r="E40" s="48"/>
       <c r="F40" s="26" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C41" s="54"/>
-      <c r="D41" s="55"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="44"/>
       <c r="E41" s="48"/>
       <c r="F41" s="26" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C42" s="56"/>
-      <c r="D42" s="57"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="46"/>
       <c r="E42" s="49"/>
       <c r="F42" s="28" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C43" s="52" t="s">
+      <c r="C43" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="D43" s="53"/>
+      <c r="D43" s="42"/>
       <c r="E43" s="47" t="s">
         <v>268</v>
       </c>
@@ -4739,58 +4739,58 @@
     </row>
     <row r="44" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B44" s="17"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="55"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="44"/>
       <c r="E44" s="48"/>
       <c r="F44" s="26" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G44" s="20"/>
     </row>
     <row r="45" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B45" s="17"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="55"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="44"/>
       <c r="E45" s="48"/>
       <c r="F45" s="26" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G45" s="20"/>
     </row>
     <row r="46" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B46" s="17"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="55"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="44"/>
       <c r="E46" s="48"/>
       <c r="F46" s="26" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G46" s="20"/>
     </row>
     <row r="47" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B47" s="17"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="55"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="44"/>
       <c r="E47" s="48"/>
       <c r="F47" s="26" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G47" s="20"/>
     </row>
     <row r="48" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B48" s="17"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="55"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="44"/>
       <c r="E48" s="48"/>
       <c r="F48" s="26" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G48" s="20"/>
     </row>
     <row r="49" spans="2:7" s="18" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B49" s="17"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="57"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="46"/>
       <c r="E49" s="49"/>
       <c r="F49" s="28" t="s">
         <v>254</v>
@@ -4869,17 +4869,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C43:D49"/>
-    <mergeCell ref="E43:E49"/>
-    <mergeCell ref="F8:N8"/>
-    <mergeCell ref="F9:N9"/>
-    <mergeCell ref="F11:N11"/>
-    <mergeCell ref="F10:N10"/>
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="F4:N4"/>
-    <mergeCell ref="F5:N5"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="F7:N7"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="E16:E19"/>
@@ -4894,6 +4883,17 @@
     <mergeCell ref="E24:E28"/>
     <mergeCell ref="E29:E33"/>
     <mergeCell ref="E34:E38"/>
+    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="F5:N5"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="C43:D49"/>
+    <mergeCell ref="E43:E49"/>
+    <mergeCell ref="F8:N8"/>
+    <mergeCell ref="F9:N9"/>
+    <mergeCell ref="F11:N11"/>
+    <mergeCell ref="F10:N10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4905,9 +4905,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
   <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
@@ -5916,13 +5916,13 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" s="14" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B34" s="8">
         <v>1029</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D34" s="8">
         <v>1</v>
@@ -5931,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>128</v>
@@ -6216,7 +6216,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>126</v>
@@ -6246,7 +6246,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>126</v>
@@ -7158,7 +7158,7 @@
         <v>5</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="G81" s="11" t="s">
         <v>130</v>
@@ -7189,13 +7189,13 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" s="14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B83" s="8">
         <v>7002</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D83" s="8">
         <v>0</v>
@@ -7204,7 +7204,7 @@
         <v>5</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G83" s="11" t="s">
         <v>130</v>
@@ -7227,7 +7227,7 @@
         <v>5</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="G84" s="11" t="s">
         <v>130</v>
@@ -7235,13 +7235,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" s="14" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B85" s="8">
         <v>7101</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D85" s="8">
         <v>0</v>
@@ -7250,7 +7250,7 @@
         <v>5</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="G85" s="11" t="s">
         <v>130</v>
@@ -7258,13 +7258,13 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86" s="14" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B86" s="8">
         <v>7102</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D86" s="8">
         <v>0</v>
@@ -7273,7 +7273,7 @@
         <v>5</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G86" s="11" t="s">
         <v>130</v>
@@ -7296,7 +7296,7 @@
         <v>5</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="G87" s="11" t="s">
         <v>130</v>

--- a/로스트아크/데이터테이블/1차완성/Effect_Table.xlsx
+++ b/로스트아크/데이터테이블/1차완성/Effect_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\1차완성\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C30519-9A5B-4FEF-94D5-89788CBCC335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11972BC-817F-4660-85C9-40060774A2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="3" r:id="rId1"/>
@@ -3817,6 +3817,39 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3835,29 +3868,8 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3877,32 +3889,20 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4229,7 +4229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37A1609-374E-41E5-A884-CAD8C506CD05}">
   <dimension ref="B1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
@@ -4249,11 +4249,11 @@
   <sheetData>
     <row r="1" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="39" t="s">
@@ -4265,17 +4265,17 @@
       <c r="E3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="60"/>
     </row>
     <row r="4" spans="2:14" s="19" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B4" s="21"/>
@@ -4288,17 +4288,17 @@
       <c r="E4" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="58"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="62"/>
     </row>
     <row r="5" spans="2:14" s="19" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B5" s="22" t="s">
@@ -4314,17 +4314,17 @@
       <c r="E5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="60"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="64"/>
     </row>
     <row r="6" spans="2:14" s="19" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B6" s="21"/>
@@ -4338,17 +4338,17 @@
       <c r="E6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="52"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="66"/>
     </row>
     <row r="7" spans="2:14" s="19" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B7" s="21"/>
@@ -4362,17 +4362,17 @@
       <c r="E7" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="67" t="s">
         <v>286</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="52"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="66"/>
     </row>
     <row r="8" spans="2:14" s="19" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="21"/>
@@ -4386,17 +4386,17 @@
       <c r="E8" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="67" t="s">
         <v>287</v>
       </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="52"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="66"/>
     </row>
     <row r="9" spans="2:14" s="19" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B9" s="21"/>
@@ -4410,17 +4410,17 @@
       <c r="E9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="65" t="s">
         <v>288</v>
       </c>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="52"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="66"/>
     </row>
     <row r="10" spans="2:14" s="19" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="21"/>
@@ -4434,48 +4434,48 @@
       <c r="E10" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="67" t="s">
         <v>289</v>
       </c>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="52"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="66"/>
     </row>
     <row r="11" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C11" s="35"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="69"/>
     </row>
     <row r="13" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C13" s="18"/>
     </row>
     <row r="14" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="44" t="s">
         <v>290</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="20"/>
     </row>
     <row r="15" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="68"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="23" t="s">
         <v>250</v>
       </c>
@@ -4485,10 +4485,10 @@
     </row>
     <row r="16" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="17"/>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="D16" s="42"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="47" t="s">
         <v>76</v>
       </c>
@@ -4499,8 +4499,8 @@
     </row>
     <row r="17" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B17" s="17"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
       <c r="E17" s="48"/>
       <c r="F17" s="26" t="s">
         <v>291</v>
@@ -4508,26 +4508,26 @@
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
       <c r="E18" s="48"/>
       <c r="F18" s="27" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
       <c r="E19" s="49"/>
       <c r="F19" s="28" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="52" t="s">
         <v>252</v>
       </c>
-      <c r="D20" s="42"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="47" t="s">
         <v>75</v>
       </c>
@@ -4536,34 +4536,34 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C21" s="43"/>
-      <c r="D21" s="44"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="48"/>
       <c r="F21" s="26" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="48"/>
       <c r="F22" s="26" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="45"/>
-      <c r="D23" s="46"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="49"/>
       <c r="F23" s="28" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="52" t="s">
         <v>256</v>
       </c>
-      <c r="D24" s="42"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="47" t="s">
         <v>81</v>
       </c>
@@ -4572,40 +4572,40 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C25" s="43"/>
-      <c r="D25" s="44"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="48"/>
       <c r="F25" s="26" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C26" s="43"/>
-      <c r="D26" s="44"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="48"/>
       <c r="F26" s="26" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C27" s="43"/>
-      <c r="D27" s="44"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="48"/>
       <c r="F27" s="26" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C28" s="43"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="69"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="58"/>
       <c r="F28" s="29" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C29" s="43"/>
-      <c r="D29" s="44"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="48" t="s">
         <v>77</v>
       </c>
@@ -4614,42 +4614,42 @@
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C30" s="43"/>
-      <c r="D30" s="44"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="48"/>
       <c r="F30" s="26" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C31" s="43"/>
-      <c r="D31" s="44"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="48"/>
       <c r="F31" s="26" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C32" s="43"/>
-      <c r="D32" s="44"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="48"/>
       <c r="F32" s="26" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C33" s="45"/>
-      <c r="D33" s="46"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="57"/>
       <c r="E33" s="49"/>
       <c r="F33" s="28" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="52" t="s">
         <v>260</v>
       </c>
-      <c r="D34" s="42"/>
+      <c r="D34" s="53"/>
       <c r="E34" s="47" t="s">
         <v>85</v>
       </c>
@@ -4658,42 +4658,42 @@
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C35" s="43"/>
-      <c r="D35" s="44"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="55"/>
       <c r="E35" s="48"/>
       <c r="F35" s="26" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C36" s="43"/>
-      <c r="D36" s="44"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="55"/>
       <c r="E36" s="48"/>
       <c r="F36" s="26" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C37" s="43"/>
-      <c r="D37" s="44"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="55"/>
       <c r="E37" s="48"/>
       <c r="F37" s="26" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C38" s="45"/>
-      <c r="D38" s="46"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="57"/>
       <c r="E38" s="49"/>
       <c r="F38" s="28" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="52" t="s">
         <v>261</v>
       </c>
-      <c r="D39" s="42"/>
+      <c r="D39" s="53"/>
       <c r="E39" s="47" t="s">
         <v>243</v>
       </c>
@@ -4702,34 +4702,34 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C40" s="43"/>
-      <c r="D40" s="44"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="55"/>
       <c r="E40" s="48"/>
       <c r="F40" s="26" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C41" s="43"/>
-      <c r="D41" s="44"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="55"/>
       <c r="E41" s="48"/>
       <c r="F41" s="26" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C42" s="45"/>
-      <c r="D42" s="46"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="57"/>
       <c r="E42" s="49"/>
       <c r="F42" s="28" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C43" s="41" t="s">
+      <c r="C43" s="52" t="s">
         <v>267</v>
       </c>
-      <c r="D43" s="42"/>
+      <c r="D43" s="53"/>
       <c r="E43" s="47" t="s">
         <v>268</v>
       </c>
@@ -4739,8 +4739,8 @@
     </row>
     <row r="44" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B44" s="17"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="44"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="55"/>
       <c r="E44" s="48"/>
       <c r="F44" s="26" t="s">
         <v>308</v>
@@ -4749,8 +4749,8 @@
     </row>
     <row r="45" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B45" s="17"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="44"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="55"/>
       <c r="E45" s="48"/>
       <c r="F45" s="26" t="s">
         <v>309</v>
@@ -4759,8 +4759,8 @@
     </row>
     <row r="46" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B46" s="17"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="44"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="55"/>
       <c r="E46" s="48"/>
       <c r="F46" s="26" t="s">
         <v>310</v>
@@ -4769,8 +4769,8 @@
     </row>
     <row r="47" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B47" s="17"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="44"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="55"/>
       <c r="E47" s="48"/>
       <c r="F47" s="26" t="s">
         <v>311</v>
@@ -4779,8 +4779,8 @@
     </row>
     <row r="48" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B48" s="17"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="44"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="55"/>
       <c r="E48" s="48"/>
       <c r="F48" s="26" t="s">
         <v>312</v>
@@ -4789,8 +4789,8 @@
     </row>
     <row r="49" spans="2:7" s="18" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B49" s="17"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="46"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="57"/>
       <c r="E49" s="49"/>
       <c r="F49" s="28" t="s">
         <v>254</v>
@@ -4869,6 +4869,17 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C43:D49"/>
+    <mergeCell ref="E43:E49"/>
+    <mergeCell ref="F8:N8"/>
+    <mergeCell ref="F9:N9"/>
+    <mergeCell ref="F11:N11"/>
+    <mergeCell ref="F10:N10"/>
+    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="F5:N5"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="F7:N7"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="E16:E19"/>
@@ -4883,17 +4894,6 @@
     <mergeCell ref="E24:E28"/>
     <mergeCell ref="E29:E33"/>
     <mergeCell ref="E34:E38"/>
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="F4:N4"/>
-    <mergeCell ref="F5:N5"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="C43:D49"/>
-    <mergeCell ref="E43:E49"/>
-    <mergeCell ref="F8:N8"/>
-    <mergeCell ref="F9:N9"/>
-    <mergeCell ref="F11:N11"/>
-    <mergeCell ref="F10:N10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4905,9 +4905,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
   <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>

--- a/로스트아크/데이터테이블/1차완성/Effect_Table.xlsx
+++ b/로스트아크/데이터테이블/1차완성/Effect_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\1차완성\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11972BC-817F-4660-85C9-40060774A2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC83010-D1B0-4A93-990E-2C9C7027B6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="3" r:id="rId1"/>
@@ -629,10 +629,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>효과 요약 설명 (기획용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2999,6 +2995,10 @@
   </si>
   <si>
     <t>sound_res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획용 효과 명칭 (실제 데이터에는 적용 X)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3817,39 +3817,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3868,8 +3835,29 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3889,20 +3877,32 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4230,7 +4230,7 @@
   <dimension ref="B1:N64"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -4241,19 +4241,19 @@
     <col min="4" max="4" width="16.296875" style="18" customWidth="1"/>
     <col min="5" max="5" width="11.8984375" style="18" customWidth="1"/>
     <col min="6" max="6" width="46.5" style="19" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="20" customWidth="1"/>
-    <col min="8" max="9" width="11.5" style="18" customWidth="1"/>
-    <col min="10" max="14" width="11.5" style="20" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="20" customWidth="1"/>
+    <col min="8" max="9" width="9.5" style="18" customWidth="1"/>
+    <col min="10" max="14" width="9.5" style="20" customWidth="1"/>
     <col min="15" max="16384" width="8.796875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
     </row>
     <row r="3" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="39" t="s">
@@ -4265,17 +4265,17 @@
       <c r="E3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="60"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="56"/>
     </row>
     <row r="4" spans="2:14" s="19" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B4" s="21"/>
@@ -4283,22 +4283,22 @@
         <v>0</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="62"/>
+      <c r="F4" s="57" t="s">
+        <v>316</v>
+      </c>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="58"/>
     </row>
     <row r="5" spans="2:14" s="19" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B5" s="22" t="s">
@@ -4314,17 +4314,17 @@
       <c r="E5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="64"/>
+      <c r="F5" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="60"/>
     </row>
     <row r="6" spans="2:14" s="19" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B6" s="21"/>
@@ -4333,22 +4333,22 @@
         <v>2</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="66"/>
+        <v>13</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="52"/>
     </row>
     <row r="7" spans="2:14" s="19" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B7" s="21"/>
@@ -4357,22 +4357,22 @@
         <v>3</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="66"/>
+      <c r="F7" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="52"/>
     </row>
     <row r="8" spans="2:14" s="19" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="21"/>
@@ -4381,22 +4381,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="67" t="s">
-        <v>287</v>
-      </c>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="66"/>
+      <c r="F8" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="52"/>
     </row>
     <row r="9" spans="2:14" s="19" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B9" s="21"/>
@@ -4405,22 +4405,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="65" t="s">
-        <v>288</v>
-      </c>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="66"/>
+        <v>13</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="52"/>
     </row>
     <row r="10" spans="2:14" s="19" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="21"/>
@@ -4429,371 +4429,371 @@
         <v>6</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="67" t="s">
-        <v>289</v>
-      </c>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="66"/>
+      <c r="F10" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="52"/>
     </row>
     <row r="11" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C11" s="35"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="69"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
     </row>
     <row r="13" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C13" s="18"/>
     </row>
     <row r="14" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C14" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
+      <c r="C14" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
       <c r="F14" s="20"/>
     </row>
     <row r="15" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="51"/>
+      <c r="C15" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="68"/>
       <c r="E15" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="17"/>
-      <c r="C16" s="52" t="s">
-        <v>251</v>
-      </c>
-      <c r="D16" s="53"/>
+      <c r="C16" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="D16" s="42"/>
       <c r="E16" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G16" s="20"/>
     </row>
     <row r="17" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B17" s="17"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="48"/>
       <c r="F17" s="26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="48"/>
       <c r="F18" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
       <c r="E19" s="49"/>
       <c r="F19" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C20" s="52" t="s">
-        <v>252</v>
-      </c>
-      <c r="D20" s="53"/>
+      <c r="C20" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="D20" s="42"/>
       <c r="E20" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="48"/>
       <c r="F21" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="48"/>
       <c r="F22" s="26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="56"/>
-      <c r="D23" s="57"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="46"/>
       <c r="E23" s="49"/>
       <c r="F23" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="D24" s="42"/>
+      <c r="E24" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>257</v>
-      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="48"/>
       <c r="F25" s="26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C26" s="54"/>
-      <c r="D26" s="55"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="44"/>
       <c r="E26" s="48"/>
       <c r="F26" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C27" s="54"/>
-      <c r="D27" s="55"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="48"/>
       <c r="F27" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C28" s="54"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="58"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="69"/>
       <c r="F28" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C29" s="54"/>
-      <c r="D29" s="55"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="44"/>
       <c r="E29" s="48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C30" s="54"/>
-      <c r="D30" s="55"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="44"/>
       <c r="E30" s="48"/>
       <c r="F30" s="26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C31" s="54"/>
-      <c r="D31" s="55"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="44"/>
       <c r="E31" s="48"/>
       <c r="F31" s="26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C32" s="54"/>
-      <c r="D32" s="55"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="44"/>
       <c r="E32" s="48"/>
       <c r="F32" s="26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C33" s="56"/>
-      <c r="D33" s="57"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="49"/>
       <c r="F33" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C34" s="52" t="s">
-        <v>260</v>
-      </c>
-      <c r="D34" s="53"/>
+      <c r="C34" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="D34" s="42"/>
       <c r="E34" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C35" s="54"/>
-      <c r="D35" s="55"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="44"/>
       <c r="E35" s="48"/>
       <c r="F35" s="26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C36" s="54"/>
-      <c r="D36" s="55"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="44"/>
       <c r="E36" s="48"/>
       <c r="F36" s="26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C37" s="54"/>
-      <c r="D37" s="55"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="44"/>
       <c r="E37" s="48"/>
       <c r="F37" s="26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C38" s="56"/>
-      <c r="D38" s="57"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="46"/>
       <c r="E38" s="49"/>
       <c r="F38" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C39" s="52" t="s">
+      <c r="C39" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="D39" s="42"/>
+      <c r="E39" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="F39" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="D39" s="53"/>
-      <c r="E39" s="47" t="s">
-        <v>243</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>262</v>
-      </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C40" s="54"/>
-      <c r="D40" s="55"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="44"/>
       <c r="E40" s="48"/>
       <c r="F40" s="26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C41" s="54"/>
-      <c r="D41" s="55"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="44"/>
       <c r="E41" s="48"/>
       <c r="F41" s="26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C42" s="56"/>
-      <c r="D42" s="57"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="46"/>
       <c r="E42" s="49"/>
       <c r="F42" s="28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C43" s="52" t="s">
+      <c r="C43" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="D43" s="42"/>
+      <c r="E43" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="D43" s="53"/>
-      <c r="E43" s="47" t="s">
+      <c r="F43" s="25" t="s">
         <v>268</v>
-      </c>
-      <c r="F43" s="25" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="44" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B44" s="17"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="55"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="44"/>
       <c r="E44" s="48"/>
       <c r="F44" s="26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G44" s="20"/>
     </row>
     <row r="45" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B45" s="17"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="55"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="44"/>
       <c r="E45" s="48"/>
       <c r="F45" s="26" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G45" s="20"/>
     </row>
     <row r="46" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B46" s="17"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="55"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="44"/>
       <c r="E46" s="48"/>
       <c r="F46" s="26" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G46" s="20"/>
     </row>
     <row r="47" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B47" s="17"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="55"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="44"/>
       <c r="E47" s="48"/>
       <c r="F47" s="26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G47" s="20"/>
     </row>
     <row r="48" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B48" s="17"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="55"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="44"/>
       <c r="E48" s="48"/>
       <c r="F48" s="26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G48" s="20"/>
     </row>
     <row r="49" spans="2:7" s="18" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B49" s="17"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="57"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="46"/>
       <c r="E49" s="49"/>
       <c r="F49" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G49" s="20"/>
     </row>
@@ -4869,17 +4869,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C43:D49"/>
-    <mergeCell ref="E43:E49"/>
-    <mergeCell ref="F8:N8"/>
-    <mergeCell ref="F9:N9"/>
-    <mergeCell ref="F11:N11"/>
-    <mergeCell ref="F10:N10"/>
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="F4:N4"/>
-    <mergeCell ref="F5:N5"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="F7:N7"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="E16:E19"/>
@@ -4894,6 +4883,17 @@
     <mergeCell ref="E24:E28"/>
     <mergeCell ref="E29:E33"/>
     <mergeCell ref="E34:E38"/>
+    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="F5:N5"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="C43:D49"/>
+    <mergeCell ref="E43:E49"/>
+    <mergeCell ref="F8:N8"/>
+    <mergeCell ref="F9:N9"/>
+    <mergeCell ref="F11:N11"/>
+    <mergeCell ref="F10:N10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4906,8 +4906,8 @@
   <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37:XFD37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
@@ -4926,25 +4926,25 @@
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -4956,13 +4956,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="8">
         <v>100</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="8">
         <v>0</v>
@@ -4971,10 +4971,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -4986,13 +4986,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="8">
         <v>101</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="8">
         <v>0</v>
@@ -5001,10 +5001,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -5016,13 +5016,13 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="8">
         <v>102</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -5046,13 +5046,13 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" s="8">
         <v>1000</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D5" s="8">
         <v>1</v>
@@ -5061,10 +5061,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -5076,13 +5076,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6" s="8">
         <v>1001</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D6" s="8">
         <v>1</v>
@@ -5091,10 +5091,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="12"/>
@@ -5106,13 +5106,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" s="8">
         <v>1002</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
@@ -5124,7 +5124,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="12"/>
@@ -5136,13 +5136,13 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8" s="8">
         <v>1003</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
@@ -5151,10 +5151,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="12"/>
@@ -5166,13 +5166,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B9" s="8">
         <v>1004</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>
@@ -5181,10 +5181,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="12"/>
@@ -5196,13 +5196,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B10" s="8">
         <v>1005</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
@@ -5211,10 +5211,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="12"/>
@@ -5226,13 +5226,13 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" s="8">
         <v>1006</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
@@ -5241,10 +5241,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="12"/>
@@ -5256,13 +5256,13 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B12" s="8">
         <v>1007</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
@@ -5271,10 +5271,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="12"/>
@@ -5286,13 +5286,13 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B13" s="8">
         <v>1008</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
@@ -5301,10 +5301,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="12"/>
@@ -5316,13 +5316,13 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B14" s="8">
         <v>1009</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
@@ -5331,10 +5331,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="12"/>
@@ -5346,13 +5346,13 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B15" s="8">
         <v>1010</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
@@ -5361,10 +5361,10 @@
         <v>1</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -5376,13 +5376,13 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B16" s="8">
         <v>1011</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D16" s="8">
         <v>1</v>
@@ -5391,10 +5391,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -5406,13 +5406,13 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B17" s="8">
         <v>1012</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D17" s="8">
         <v>1</v>
@@ -5421,10 +5421,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -5436,13 +5436,13 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B18" s="8">
         <v>1013</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D18" s="8">
         <v>1</v>
@@ -5451,10 +5451,10 @@
         <v>1</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -5466,13 +5466,13 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B19" s="8">
         <v>1014</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D19" s="8">
         <v>1</v>
@@ -5481,10 +5481,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -5496,13 +5496,13 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B20" s="8">
         <v>1015</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D20" s="8">
         <v>1</v>
@@ -5511,10 +5511,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -5526,13 +5526,13 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B21" s="8">
         <v>1016</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D21" s="8">
         <v>1</v>
@@ -5541,10 +5541,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -5556,13 +5556,13 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B22" s="8">
         <v>1017</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
@@ -5571,10 +5571,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -5586,13 +5586,13 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B23" s="8">
         <v>1018</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D23" s="8">
         <v>1</v>
@@ -5601,10 +5601,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -5616,13 +5616,13 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B24" s="8">
         <v>1019</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
@@ -5631,10 +5631,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -5646,13 +5646,13 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B25" s="8">
         <v>1020</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D25" s="8">
         <v>1</v>
@@ -5661,10 +5661,10 @@
         <v>1</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -5676,13 +5676,13 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B26" s="8">
         <v>1021</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D26" s="8">
         <v>1</v>
@@ -5691,10 +5691,10 @@
         <v>1</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -5706,13 +5706,13 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B27" s="8">
         <v>1022</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
@@ -5721,10 +5721,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -5736,13 +5736,13 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B28" s="8">
         <v>1023</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
@@ -5751,10 +5751,10 @@
         <v>1</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -5766,13 +5766,13 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B29" s="8">
         <v>1024</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
@@ -5781,10 +5781,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -5796,13 +5796,13 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B30" s="8">
         <v>1025</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D30" s="8">
         <v>1</v>
@@ -5811,10 +5811,10 @@
         <v>1</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -5826,25 +5826,25 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B31" s="8">
         <v>1026</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1</v>
+      </c>
+      <c r="F31" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="D31" s="8">
-        <v>1</v>
-      </c>
-      <c r="E31" s="8">
-        <v>1</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>211</v>
-      </c>
       <c r="G31" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -5856,13 +5856,13 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B32" s="8">
         <v>1027</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D32" s="8">
         <v>1</v>
@@ -5871,10 +5871,10 @@
         <v>1</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -5886,13 +5886,13 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B33" s="8">
         <v>1028</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D33" s="8">
         <v>1</v>
@@ -5901,10 +5901,10 @@
         <v>1</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="7"/>
@@ -5916,25 +5916,25 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B34" s="8">
         <v>1029</v>
       </c>
       <c r="C34" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1</v>
+      </c>
+      <c r="F34" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="D34" s="8">
-        <v>1</v>
-      </c>
-      <c r="E34" s="8">
-        <v>1</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>284</v>
-      </c>
       <c r="G34" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="7"/>
@@ -5946,13 +5946,13 @@
     </row>
     <row r="35" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" s="8">
         <v>1990</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D35" s="8">
         <v>0</v>
@@ -5961,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G35" s="6">
         <v>10</v>
@@ -5972,13 +5972,13 @@
     </row>
     <row r="36" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" s="8">
         <v>1991</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D36" s="8">
         <v>0</v>
@@ -5987,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G36" s="6">
         <v>10</v>
@@ -5998,13 +5998,13 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A37" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B37" s="8">
         <v>2000</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D37" s="8">
         <v>2</v>
@@ -6013,21 +6013,21 @@
         <v>1</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B38" s="8">
         <v>2001</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D38" s="8">
         <v>2</v>
@@ -6036,10 +6036,10 @@
         <v>1</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -6051,13 +6051,13 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B39" s="8">
         <v>2002</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D39" s="8">
         <v>2</v>
@@ -6066,10 +6066,10 @@
         <v>1</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -6081,13 +6081,13 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A40" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B40" s="8">
         <v>2003</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D40" s="8">
         <v>2</v>
@@ -6096,10 +6096,10 @@
         <v>1</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -6111,13 +6111,13 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A41" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B41" s="8">
         <v>2004</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D41" s="8">
         <v>2</v>
@@ -6126,10 +6126,10 @@
         <v>1</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -6141,13 +6141,13 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B42" s="8">
         <v>2005</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D42" s="8">
         <v>2</v>
@@ -6156,10 +6156,10 @@
         <v>1</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -6171,13 +6171,13 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B43" s="8">
         <v>2006</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D43" s="8">
         <v>2</v>
@@ -6186,10 +6186,10 @@
         <v>1</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -6201,13 +6201,13 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B44" s="8">
         <v>2007</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D44" s="8">
         <v>2</v>
@@ -6216,10 +6216,10 @@
         <v>1</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -6231,13 +6231,13 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A45" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B45" s="8">
         <v>2008</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D45" s="8">
         <v>2</v>
@@ -6246,10 +6246,10 @@
         <v>1</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
@@ -6261,13 +6261,13 @@
     </row>
     <row r="46" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A46" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B46" s="8">
         <v>2990</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D46" s="8">
         <v>0</v>
@@ -6276,7 +6276,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G46" s="6">
         <v>10</v>
@@ -6287,13 +6287,13 @@
     </row>
     <row r="47" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A47" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B47" s="8">
         <v>3000</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D47" s="8">
         <v>1</v>
@@ -6302,10 +6302,10 @@
         <v>2</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
@@ -6313,13 +6313,13 @@
     </row>
     <row r="48" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B48" s="8">
         <v>3001</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D48" s="8">
         <v>1</v>
@@ -6328,10 +6328,10 @@
         <v>2</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
@@ -6339,13 +6339,13 @@
     </row>
     <row r="49" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B49" s="8">
         <v>3002</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D49" s="8">
         <v>1</v>
@@ -6354,10 +6354,10 @@
         <v>2</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
@@ -6365,13 +6365,13 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A50" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B50" s="8">
         <v>3003</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D50" s="8">
         <v>1</v>
@@ -6380,21 +6380,21 @@
         <v>2</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A51" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B51" s="8">
         <v>3004</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D51" s="8">
         <v>1</v>
@@ -6403,21 +6403,21 @@
         <v>2</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A52" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B52" s="8">
         <v>3005</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D52" s="8">
         <v>1</v>
@@ -6426,10 +6426,10 @@
         <v>2</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
@@ -6437,13 +6437,13 @@
     </row>
     <row r="53" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A53" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B53" s="8">
         <v>3006</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D53" s="8">
         <v>1</v>
@@ -6452,10 +6452,10 @@
         <v>2</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
@@ -6463,13 +6463,13 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A54" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54" s="8">
         <v>4000</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D54" s="8">
         <v>2</v>
@@ -6478,10 +6478,10 @@
         <v>2</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
@@ -6493,13 +6493,13 @@
     </row>
     <row r="55" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55" s="8">
         <v>4001</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D55" s="8">
         <v>2</v>
@@ -6508,10 +6508,10 @@
         <v>2</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
@@ -6519,13 +6519,13 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A56" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="8">
         <v>4002</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D56" s="8">
         <v>2</v>
@@ -6534,10 +6534,10 @@
         <v>2</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
@@ -6549,13 +6549,13 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A57" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="8">
         <v>4003</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D57" s="8">
         <v>2</v>
@@ -6564,10 +6564,10 @@
         <v>2</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
@@ -6579,13 +6579,13 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A58" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="8">
         <v>4004</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D58" s="8">
         <v>2</v>
@@ -6594,10 +6594,10 @@
         <v>2</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
@@ -6609,13 +6609,13 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A59" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B59" s="8">
         <v>4005</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D59" s="8">
         <v>2</v>
@@ -6624,21 +6624,21 @@
         <v>2</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A60" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B60" s="8">
         <v>4006</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D60" s="8">
         <v>2</v>
@@ -6647,21 +6647,21 @@
         <v>2</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A61" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B61" s="8">
         <v>4007</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D61" s="8">
         <v>2</v>
@@ -6670,21 +6670,21 @@
         <v>2</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A62" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B62" s="8">
         <v>4008</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D62" s="8">
         <v>2</v>
@@ -6693,21 +6693,21 @@
         <v>2</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A63" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B63" s="8">
         <v>4009</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D63" s="8">
         <v>2</v>
@@ -6716,21 +6716,21 @@
         <v>2</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A64" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B64" s="8">
         <v>4010</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D64" s="8">
         <v>2</v>
@@ -6739,21 +6739,21 @@
         <v>2</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A65" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B65" s="8">
         <v>4011</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D65" s="8">
         <v>2</v>
@@ -6762,21 +6762,21 @@
         <v>2</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A66" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B66" s="8">
         <v>4012</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D66" s="8">
         <v>2</v>
@@ -6785,21 +6785,21 @@
         <v>2</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A67" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B67" s="8">
         <v>4013</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D67" s="8">
         <v>2</v>
@@ -6808,21 +6808,21 @@
         <v>2</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A68" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B68" s="8">
         <v>4014</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D68" s="8">
         <v>2</v>
@@ -6831,21 +6831,21 @@
         <v>2</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A69" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B69" s="8">
         <v>5000</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D69" s="8">
         <v>0</v>
@@ -6854,21 +6854,21 @@
         <v>3</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A70" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B70" s="8">
         <v>5001</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D70" s="8">
         <v>0</v>
@@ -6877,21 +6877,21 @@
         <v>3</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A71" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B71" s="8">
         <v>5002</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D71" s="8">
         <v>1</v>
@@ -6900,21 +6900,21 @@
         <v>3</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A72" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B72" s="8">
         <v>5003</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D72" s="8">
         <v>1</v>
@@ -6923,21 +6923,21 @@
         <v>3</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A73" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B73" s="8">
         <v>5004</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D73" s="8">
         <v>1</v>
@@ -6946,21 +6946,21 @@
         <v>3</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A74" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B74" s="8">
         <v>5005</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D74" s="8">
         <v>1</v>
@@ -6969,7 +6969,7 @@
         <v>3</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G74" s="11">
         <v>10</v>
@@ -6984,13 +6984,13 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A75" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B75" s="8">
         <v>5006</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D75" s="8">
         <v>1</v>
@@ -6999,7 +6999,7 @@
         <v>3</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G75" s="11">
         <v>10</v>
@@ -7014,13 +7014,13 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A76" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B76" s="8">
         <v>5500</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D76" s="8">
         <v>1</v>
@@ -7029,10 +7029,10 @@
         <v>3</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
@@ -7044,13 +7044,13 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A77" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B77" s="8">
         <v>5501</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D77" s="8">
         <v>2</v>
@@ -7059,10 +7059,10 @@
         <v>3</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
@@ -7074,13 +7074,13 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A78" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B78" s="8">
         <v>6000</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D78" s="8">
         <v>0</v>
@@ -7089,21 +7089,21 @@
         <v>4</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A79" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B79" s="8">
         <v>6001</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D79" s="8">
         <v>0</v>
@@ -7112,21 +7112,21 @@
         <v>4</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A80" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B80" s="8">
         <v>6002</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D80" s="8">
         <v>0</v>
@@ -7135,21 +7135,21 @@
         <v>4</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B81" s="8">
         <v>7000</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D81" s="8">
         <v>0</v>
@@ -7158,21 +7158,21 @@
         <v>5</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B82" s="8">
         <v>7001</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8">
         <v>0</v>
@@ -7181,21 +7181,21 @@
         <v>5</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B83" s="8">
         <v>7002</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D83" s="8">
         <v>0</v>
@@ -7204,21 +7204,21 @@
         <v>5</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B84" s="8">
         <v>7100</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D84" s="8">
         <v>0</v>
@@ -7227,21 +7227,21 @@
         <v>5</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B85" s="8">
         <v>7101</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D85" s="8">
         <v>0</v>
@@ -7250,21 +7250,21 @@
         <v>5</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B86" s="8">
         <v>7102</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D86" s="8">
         <v>0</v>
@@ -7273,21 +7273,21 @@
         <v>5</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B87" s="8">
         <v>7200</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D87" s="8">
         <v>0</v>
@@ -7296,10 +7296,10 @@
         <v>5</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.4">

--- a/로스트아크/데이터테이블/1차완성/Effect_Table.xlsx
+++ b/로스트아크/데이터테이블/1차완성/Effect_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\1차완성\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC83010-D1B0-4A93-990E-2C9C7027B6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36A0410-EAC2-4AA8-9DB9-A618D14364C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -3817,6 +3817,39 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3835,29 +3868,8 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3877,32 +3889,20 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4249,11 +4249,11 @@
   <sheetData>
     <row r="1" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="39" t="s">
@@ -4265,17 +4265,17 @@
       <c r="E3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="60"/>
     </row>
     <row r="4" spans="2:14" s="19" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B4" s="21"/>
@@ -4288,17 +4288,17 @@
       <c r="E4" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="61" t="s">
         <v>316</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="58"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="62"/>
     </row>
     <row r="5" spans="2:14" s="19" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B5" s="22" t="s">
@@ -4314,17 +4314,17 @@
       <c r="E5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="60"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="64"/>
     </row>
     <row r="6" spans="2:14" s="19" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B6" s="21"/>
@@ -4338,17 +4338,17 @@
       <c r="E6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="52"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="66"/>
     </row>
     <row r="7" spans="2:14" s="19" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B7" s="21"/>
@@ -4362,17 +4362,17 @@
       <c r="E7" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="67" t="s">
         <v>285</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="52"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="66"/>
     </row>
     <row r="8" spans="2:14" s="19" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="21"/>
@@ -4386,17 +4386,17 @@
       <c r="E8" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="67" t="s">
         <v>286</v>
       </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="52"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="66"/>
     </row>
     <row r="9" spans="2:14" s="19" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B9" s="21"/>
@@ -4410,17 +4410,17 @@
       <c r="E9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="65" t="s">
         <v>287</v>
       </c>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="52"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="66"/>
     </row>
     <row r="10" spans="2:14" s="19" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="21"/>
@@ -4434,48 +4434,48 @@
       <c r="E10" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="67" t="s">
         <v>288</v>
       </c>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="52"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="66"/>
     </row>
     <row r="11" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C11" s="35"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="69"/>
     </row>
     <row r="13" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C13" s="18"/>
     </row>
     <row r="14" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="44" t="s">
         <v>289</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="20"/>
     </row>
     <row r="15" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="68"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="23" t="s">
         <v>249</v>
       </c>
@@ -4485,10 +4485,10 @@
     </row>
     <row r="16" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="17"/>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="D16" s="42"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="47" t="s">
         <v>75</v>
       </c>
@@ -4499,8 +4499,8 @@
     </row>
     <row r="17" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B17" s="17"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
       <c r="E17" s="48"/>
       <c r="F17" s="26" t="s">
         <v>290</v>
@@ -4508,26 +4508,26 @@
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
       <c r="E18" s="48"/>
       <c r="F18" s="27" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
       <c r="E19" s="49"/>
       <c r="F19" s="28" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="D20" s="42"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="47" t="s">
         <v>74</v>
       </c>
@@ -4536,34 +4536,34 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C21" s="43"/>
-      <c r="D21" s="44"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="48"/>
       <c r="F21" s="26" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="48"/>
       <c r="F22" s="26" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="45"/>
-      <c r="D23" s="46"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="49"/>
       <c r="F23" s="28" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="52" t="s">
         <v>255</v>
       </c>
-      <c r="D24" s="42"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="47" t="s">
         <v>80</v>
       </c>
@@ -4572,40 +4572,40 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C25" s="43"/>
-      <c r="D25" s="44"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="48"/>
       <c r="F25" s="26" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C26" s="43"/>
-      <c r="D26" s="44"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="48"/>
       <c r="F26" s="26" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C27" s="43"/>
-      <c r="D27" s="44"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="48"/>
       <c r="F27" s="26" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C28" s="43"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="69"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="58"/>
       <c r="F28" s="29" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C29" s="43"/>
-      <c r="D29" s="44"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="48" t="s">
         <v>76</v>
       </c>
@@ -4614,42 +4614,42 @@
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C30" s="43"/>
-      <c r="D30" s="44"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="48"/>
       <c r="F30" s="26" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C31" s="43"/>
-      <c r="D31" s="44"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="48"/>
       <c r="F31" s="26" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C32" s="43"/>
-      <c r="D32" s="44"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="48"/>
       <c r="F32" s="26" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C33" s="45"/>
-      <c r="D33" s="46"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="57"/>
       <c r="E33" s="49"/>
       <c r="F33" s="28" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="52" t="s">
         <v>259</v>
       </c>
-      <c r="D34" s="42"/>
+      <c r="D34" s="53"/>
       <c r="E34" s="47" t="s">
         <v>84</v>
       </c>
@@ -4658,42 +4658,42 @@
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C35" s="43"/>
-      <c r="D35" s="44"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="55"/>
       <c r="E35" s="48"/>
       <c r="F35" s="26" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C36" s="43"/>
-      <c r="D36" s="44"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="55"/>
       <c r="E36" s="48"/>
       <c r="F36" s="26" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C37" s="43"/>
-      <c r="D37" s="44"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="55"/>
       <c r="E37" s="48"/>
       <c r="F37" s="26" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C38" s="45"/>
-      <c r="D38" s="46"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="57"/>
       <c r="E38" s="49"/>
       <c r="F38" s="28" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="52" t="s">
         <v>260</v>
       </c>
-      <c r="D39" s="42"/>
+      <c r="D39" s="53"/>
       <c r="E39" s="47" t="s">
         <v>242</v>
       </c>
@@ -4702,34 +4702,34 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C40" s="43"/>
-      <c r="D40" s="44"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="55"/>
       <c r="E40" s="48"/>
       <c r="F40" s="26" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C41" s="43"/>
-      <c r="D41" s="44"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="55"/>
       <c r="E41" s="48"/>
       <c r="F41" s="26" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C42" s="45"/>
-      <c r="D42" s="46"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="57"/>
       <c r="E42" s="49"/>
       <c r="F42" s="28" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C43" s="41" t="s">
+      <c r="C43" s="52" t="s">
         <v>266</v>
       </c>
-      <c r="D43" s="42"/>
+      <c r="D43" s="53"/>
       <c r="E43" s="47" t="s">
         <v>267</v>
       </c>
@@ -4739,8 +4739,8 @@
     </row>
     <row r="44" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B44" s="17"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="44"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="55"/>
       <c r="E44" s="48"/>
       <c r="F44" s="26" t="s">
         <v>307</v>
@@ -4749,8 +4749,8 @@
     </row>
     <row r="45" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B45" s="17"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="44"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="55"/>
       <c r="E45" s="48"/>
       <c r="F45" s="26" t="s">
         <v>308</v>
@@ -4759,8 +4759,8 @@
     </row>
     <row r="46" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B46" s="17"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="44"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="55"/>
       <c r="E46" s="48"/>
       <c r="F46" s="26" t="s">
         <v>309</v>
@@ -4769,8 +4769,8 @@
     </row>
     <row r="47" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B47" s="17"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="44"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="55"/>
       <c r="E47" s="48"/>
       <c r="F47" s="26" t="s">
         <v>310</v>
@@ -4779,8 +4779,8 @@
     </row>
     <row r="48" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B48" s="17"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="44"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="55"/>
       <c r="E48" s="48"/>
       <c r="F48" s="26" t="s">
         <v>311</v>
@@ -4789,8 +4789,8 @@
     </row>
     <row r="49" spans="2:7" s="18" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B49" s="17"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="46"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="57"/>
       <c r="E49" s="49"/>
       <c r="F49" s="28" t="s">
         <v>253</v>
@@ -4869,6 +4869,17 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C43:D49"/>
+    <mergeCell ref="E43:E49"/>
+    <mergeCell ref="F8:N8"/>
+    <mergeCell ref="F9:N9"/>
+    <mergeCell ref="F11:N11"/>
+    <mergeCell ref="F10:N10"/>
+    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="F5:N5"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="F7:N7"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="E16:E19"/>
@@ -4883,17 +4894,6 @@
     <mergeCell ref="E24:E28"/>
     <mergeCell ref="E29:E33"/>
     <mergeCell ref="E34:E38"/>
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="F4:N4"/>
-    <mergeCell ref="F5:N5"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="C43:D49"/>
-    <mergeCell ref="E43:E49"/>
-    <mergeCell ref="F8:N8"/>
-    <mergeCell ref="F9:N9"/>
-    <mergeCell ref="F11:N11"/>
-    <mergeCell ref="F10:N10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4906,8 +4906,8 @@
   <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
